--- a/PDN/data/Doo_6wk_AD_DMSO_diffPathways.xlsx
+++ b/PDN/data/Doo_6wk_AD_DMSO_diffPathways.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepamberkar/Work/Collaborations/Resiliome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UOS\Documents\GitHub\CPPCxN\PDN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F718EA8-BA55-564A-B32C-D39C0CF31BA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5588"/>
   </bookViews>
   <sheets>
     <sheet name="Doo_6wk_AD_DMSO_diffPathways" sheetId="1" r:id="rId1"/>
@@ -4688,19 +4687,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="44.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.1640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="14.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.1875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1260</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="361" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="342" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>-3.60869351828274</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
         <v>151</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
         <v>153</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>-3.7636129950890802</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
         <v>160</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A91" s="2" t="s">
         <v>178</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93" s="2" t="s">
         <v>182</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>-3.9692579304208699</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A94" s="2" t="s">
         <v>183</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="2" t="s">
         <v>185</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A96" s="2" t="s">
         <v>187</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
         <v>189</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A98" s="2" t="s">
         <v>191</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A99" s="2" t="s">
         <v>193</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A100" s="2" t="s">
         <v>195</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A101" s="2" t="s">
         <v>197</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A102" s="2" t="s">
         <v>199</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A103" s="2" t="s">
         <v>201</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A104" s="2" t="s">
         <v>203</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A105" s="2" t="s">
         <v>205</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A106" s="2" t="s">
         <v>207</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A107" s="2" t="s">
         <v>209</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A108" s="2" t="s">
         <v>211</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A109" s="2" t="s">
         <v>213</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A110" s="2" t="s">
         <v>215</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A111" s="2" t="s">
         <v>217</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A112" s="2" t="s">
         <v>219</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A113" s="2" t="s">
         <v>221</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A114" s="2" t="s">
         <v>223</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A115" s="2" t="s">
         <v>225</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A116" s="2" t="s">
         <v>227</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A117" s="2" t="s">
         <v>229</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A118" s="2" t="s">
         <v>231</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119" s="2" t="s">
         <v>233</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A120" s="2" t="s">
         <v>235</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>-4.2311707643706002</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A121" s="2" t="s">
         <v>236</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A122" s="2" t="s">
         <v>238</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A123" s="2" t="s">
         <v>240</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A124" s="2" t="s">
         <v>242</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A125" s="2" t="s">
         <v>244</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A126" s="2" t="s">
         <v>246</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A127" s="2" t="s">
         <v>248</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A128" s="2" t="s">
         <v>250</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A129" s="2" t="s">
         <v>252</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A130" s="2" t="s">
         <v>254</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A131" s="2" t="s">
         <v>256</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A132" s="2" t="s">
         <v>258</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>-4.3230315372297596</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A133" s="2" t="s">
         <v>259</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A134" s="2" t="s">
         <v>261</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A135" s="2" t="s">
         <v>263</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A136" s="2" t="s">
         <v>265</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A137" s="2" t="s">
         <v>267</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A138" s="2" t="s">
         <v>269</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A139" s="2" t="s">
         <v>271</v>
       </c>
@@ -8299,7 +8298,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A140" s="2" t="s">
         <v>273</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A141" s="2" t="s">
         <v>275</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A142" s="2" t="s">
         <v>277</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A143" s="2" t="s">
         <v>279</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="396" x14ac:dyDescent="0.5">
       <c r="A144" s="2" t="s">
         <v>281</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A145" s="2" t="s">
         <v>283</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A146" s="2" t="s">
         <v>285</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A147" s="2" t="s">
         <v>287</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A148" s="2" t="s">
         <v>289</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A149" s="2" t="s">
         <v>291</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A150" s="2" t="s">
         <v>293</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A151" s="2" t="s">
         <v>295</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A152" s="2" t="s">
         <v>297</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A153" s="2" t="s">
         <v>299</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A154" s="2" t="s">
         <v>301</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A155" s="2" t="s">
         <v>303</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A156" s="2" t="s">
         <v>305</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A157" s="2" t="s">
         <v>307</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A158" s="2" t="s">
         <v>309</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A159" s="2" t="s">
         <v>311</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A160" s="2" t="s">
         <v>313</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A161" s="2" t="s">
         <v>315</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A162" s="2" t="s">
         <v>317</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A163" s="2" t="s">
         <v>319</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A164" s="2" t="s">
         <v>321</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A165" s="2" t="s">
         <v>323</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A166" s="2" t="s">
         <v>325</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A167" s="2" t="s">
         <v>327</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A168" s="2" t="s">
         <v>329</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
@@ -9079,7 +9078,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A170" s="2" t="s">
         <v>333</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A171" s="2" t="s">
         <v>335</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A172" s="2" t="s">
         <v>337</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A173" s="2" t="s">
         <v>339</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A174" s="2" t="s">
         <v>341</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A175" s="2" t="s">
         <v>343</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A176" s="2" t="s">
         <v>345</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A177" s="2" t="s">
         <v>347</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A178" s="2" t="s">
         <v>349</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A179" s="2" t="s">
         <v>351</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A180" s="2" t="s">
         <v>353</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A181" s="2" t="s">
         <v>355</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A182" s="2" t="s">
         <v>357</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A183" s="2" t="s">
         <v>359</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A184" s="2" t="s">
         <v>361</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A185" s="2" t="s">
         <v>363</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A186" s="2" t="s">
         <v>365</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A187" s="2" t="s">
         <v>367</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A188" s="2" t="s">
         <v>369</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A189" s="2" t="s">
         <v>371</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A190" s="2" t="s">
         <v>373</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A191" s="2" t="s">
         <v>375</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A192" s="2" t="s">
         <v>377</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A193" s="2" t="s">
         <v>379</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A194" s="2" t="s">
         <v>381</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A195" s="2" t="s">
         <v>383</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A196" s="2" t="s">
         <v>385</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A197" s="2" t="s">
         <v>387</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="396" x14ac:dyDescent="0.5">
       <c r="A198" s="2" t="s">
         <v>389</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A199" s="2" t="s">
         <v>391</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A200" s="2" t="s">
         <v>393</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A201" s="2" t="s">
         <v>395</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A202" s="2" t="s">
         <v>397</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A203" s="2" t="s">
         <v>399</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A204" s="2" t="s">
         <v>401</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="360" x14ac:dyDescent="0.5">
       <c r="A205" s="2" t="s">
         <v>403</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A206" s="2" t="s">
         <v>405</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A207" s="2" t="s">
         <v>407</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A208" s="2" t="s">
         <v>409</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A209" s="2" t="s">
         <v>411</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="361" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="342" x14ac:dyDescent="0.5">
       <c r="A210" s="2" t="s">
         <v>413</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A211" s="2" t="s">
         <v>415</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A212" s="2" t="s">
         <v>417</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A213" s="2" t="s">
         <v>419</v>
       </c>
@@ -10223,7 +10222,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A214" s="2" t="s">
         <v>421</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A215" s="2" t="s">
         <v>423</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A216" s="2" t="s">
         <v>425</v>
       </c>
@@ -10301,7 +10300,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A217" s="2" t="s">
         <v>427</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A218" s="2" t="s">
         <v>429</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A219" s="2" t="s">
         <v>431</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A220" s="2" t="s">
         <v>433</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A221" s="2" t="s">
         <v>435</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A222" s="2" t="s">
         <v>437</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A223" s="2" t="s">
         <v>439</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A224" s="2" t="s">
         <v>441</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A225" s="2" t="s">
         <v>443</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A226" s="2" t="s">
         <v>445</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A227" s="2" t="s">
         <v>447</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A228" s="2" t="s">
         <v>449</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A229" s="2" t="s">
         <v>451</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A230" s="2" t="s">
         <v>453</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A231" s="2" t="s">
         <v>455</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A232" s="2" t="s">
         <v>457</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A233" s="2" t="s">
         <v>459</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A234" s="2" t="s">
         <v>461</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A235" s="2" t="s">
         <v>463</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A236" s="2" t="s">
         <v>465</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A237" s="2" t="s">
         <v>467</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A238" s="2" t="s">
         <v>469</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A239" s="2" t="s">
         <v>471</v>
       </c>
@@ -10899,7 +10898,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A240" s="2" t="s">
         <v>473</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="361" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A241" s="2" t="s">
         <v>475</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A242" s="2" t="s">
         <v>477</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A243" s="2" t="s">
         <v>479</v>
       </c>
@@ -11003,7 +11002,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A244" s="2" t="s">
         <v>481</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A245" s="2" t="s">
         <v>483</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A246" s="2" t="s">
         <v>485</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A247" s="2" t="s">
         <v>487</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A248" s="2" t="s">
         <v>489</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A249" s="2" t="s">
         <v>491</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A250" s="2" t="s">
         <v>493</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A251" s="2" t="s">
         <v>495</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A252" s="2" t="s">
         <v>497</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A253" s="2" t="s">
         <v>499</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A254" s="2" t="s">
         <v>501</v>
       </c>
@@ -11289,7 +11288,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A255" s="2" t="s">
         <v>503</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A256" s="2" t="s">
         <v>505</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A257" s="2" t="s">
         <v>507</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A258" s="2" t="s">
         <v>509</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A259" s="2" t="s">
         <v>511</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A260" s="2" t="s">
         <v>513</v>
       </c>
@@ -11445,7 +11444,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A261" s="2" t="s">
         <v>515</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A262" s="2" t="s">
         <v>517</v>
       </c>
@@ -11497,7 +11496,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A263" s="2" t="s">
         <v>519</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A264" s="2" t="s">
         <v>521</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A265" s="2" t="s">
         <v>523</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A266" s="2" t="s">
         <v>525</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A267" s="2" t="s">
         <v>527</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A268" s="2" t="s">
         <v>529</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A269" s="2" t="s">
         <v>531</v>
       </c>
@@ -11679,7 +11678,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A270" s="2" t="s">
         <v>533</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A271" s="2" t="s">
         <v>535</v>
       </c>
@@ -11731,7 +11730,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A272" s="2" t="s">
         <v>537</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A273" s="2" t="s">
         <v>539</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A274" s="2" t="s">
         <v>541</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A275" s="2" t="s">
         <v>543</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A276" s="2" t="s">
         <v>545</v>
       </c>
@@ -11861,7 +11860,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A277" s="2" t="s">
         <v>547</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A278" s="2" t="s">
         <v>549</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A279" s="2" t="s">
         <v>551</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A280" s="2" t="s">
         <v>553</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A281" s="2" t="s">
         <v>555</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A282" s="2" t="s">
         <v>557</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A283" s="2" t="s">
         <v>559</v>
       </c>
@@ -12043,7 +12042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A284" s="2" t="s">
         <v>561</v>
       </c>
@@ -12069,7 +12068,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A285" s="2" t="s">
         <v>563</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A286" s="2" t="s">
         <v>565</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A287" s="2" t="s">
         <v>567</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A288" s="2" t="s">
         <v>569</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A289" s="2" t="s">
         <v>571</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A290" s="2" t="s">
         <v>573</v>
       </c>
@@ -12225,7 +12224,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A291" s="2" t="s">
         <v>575</v>
       </c>
@@ -12251,7 +12250,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A292" s="2" t="s">
         <v>577</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A293" s="2" t="s">
         <v>579</v>
       </c>
@@ -12303,7 +12302,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A294" s="2" t="s">
         <v>581</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A295" s="2" t="s">
         <v>583</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A296" s="2" t="s">
         <v>585</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A297" s="2" t="s">
         <v>587</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A298" s="2" t="s">
         <v>589</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A299" s="2" t="s">
         <v>591</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A300" s="2" t="s">
         <v>593</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A301" s="2" t="s">
         <v>595</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A302" s="2" t="s">
         <v>597</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A303" s="2" t="s">
         <v>599</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A304" s="2" t="s">
         <v>601</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A305" s="2" t="s">
         <v>603</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A306" s="2" t="s">
         <v>605</v>
       </c>
@@ -12641,7 +12640,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A307" s="2" t="s">
         <v>607</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A308" s="2" t="s">
         <v>609</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A309" s="2" t="s">
         <v>611</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A310" s="2" t="s">
         <v>613</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A311" s="2" t="s">
         <v>615</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A312" s="2" t="s">
         <v>617</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A313" s="2" t="s">
         <v>619</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A314" s="2" t="s">
         <v>621</v>
       </c>
@@ -12849,7 +12848,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A315" s="2" t="s">
         <v>623</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A316" s="2" t="s">
         <v>625</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A317" s="2" t="s">
         <v>627</v>
       </c>
@@ -12927,7 +12926,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="361" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="342" x14ac:dyDescent="0.5">
       <c r="A318" s="2" t="s">
         <v>629</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A319" s="2" t="s">
         <v>631</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A320" s="2" t="s">
         <v>633</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A321" s="2" t="s">
         <v>635</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A322" s="2" t="s">
         <v>637</v>
       </c>
@@ -13057,7 +13056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A323" s="2" t="s">
         <v>639</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A324" s="2" t="s">
         <v>641</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A325" s="2" t="s">
         <v>643</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A326" s="2" t="s">
         <v>645</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A327" s="2" t="s">
         <v>647</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A328" s="2" t="s">
         <v>649</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A329" s="2" t="s">
         <v>651</v>
       </c>
@@ -13239,7 +13238,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A330" s="2" t="s">
         <v>653</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A331" s="2" t="s">
         <v>655</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A332" s="2" t="s">
         <v>657</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A333" s="2" t="s">
         <v>659</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A334" s="2" t="s">
         <v>661</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A335" s="2" t="s">
         <v>663</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A336" s="2" t="s">
         <v>665</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A337" s="2" t="s">
         <v>667</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A338" s="2" t="s">
         <v>669</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A339" s="2" t="s">
         <v>671</v>
       </c>
@@ -13499,7 +13498,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A340" s="2" t="s">
         <v>673</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A341" s="2" t="s">
         <v>675</v>
       </c>
@@ -13551,7 +13550,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A342" s="2" t="s">
         <v>677</v>
       </c>
@@ -13577,7 +13576,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A343" s="2" t="s">
         <v>679</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A344" s="2" t="s">
         <v>681</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A345" s="2" t="s">
         <v>683</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A346" s="2" t="s">
         <v>685</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A347" s="2" t="s">
         <v>687</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A348" s="2" t="s">
         <v>689</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A349" s="2" t="s">
         <v>691</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A350" s="2" t="s">
         <v>693</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A351" s="2" t="s">
         <v>695</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A352" s="2" t="s">
         <v>697</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A353" s="2" t="s">
         <v>699</v>
       </c>
@@ -13863,7 +13862,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A354" s="2" t="s">
         <v>701</v>
       </c>
@@ -13889,7 +13888,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A355" s="2" t="s">
         <v>703</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A356" s="2" t="s">
         <v>705</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A357" s="2" t="s">
         <v>707</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="396" x14ac:dyDescent="0.5">
       <c r="A358" s="2" t="s">
         <v>709</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A359" s="2" t="s">
         <v>711</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A360" s="2" t="s">
         <v>713</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A361" s="2" t="s">
         <v>715</v>
       </c>
@@ -14071,7 +14070,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A362" s="2" t="s">
         <v>717</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A363" s="2" t="s">
         <v>719</v>
       </c>
@@ -14123,7 +14122,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A364" s="2" t="s">
         <v>721</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A365" s="2" t="s">
         <v>723</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A366" s="2" t="s">
         <v>725</v>
       </c>
@@ -14201,7 +14200,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A367" s="2" t="s">
         <v>727</v>
       </c>
@@ -14227,7 +14226,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A368" s="2" t="s">
         <v>729</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A369" s="2" t="s">
         <v>731</v>
       </c>
@@ -14279,7 +14278,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A370" s="2" t="s">
         <v>733</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A371" s="2" t="s">
         <v>735</v>
       </c>
@@ -14331,7 +14330,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A372" s="2" t="s">
         <v>737</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A373" s="2" t="s">
         <v>739</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A374" s="2" t="s">
         <v>741</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A375" s="2" t="s">
         <v>743</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A376" s="2" t="s">
         <v>745</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A377" s="2" t="s">
         <v>747</v>
       </c>
@@ -14487,7 +14486,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A378" s="2" t="s">
         <v>749</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A379" s="2" t="s">
         <v>751</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A380" s="2" t="s">
         <v>753</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A381" s="2" t="s">
         <v>755</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A382" s="2" t="s">
         <v>757</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A383" s="2" t="s">
         <v>759</v>
       </c>
@@ -14643,7 +14642,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A384" s="2" t="s">
         <v>761</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="360" x14ac:dyDescent="0.5">
       <c r="A385" s="2" t="s">
         <v>763</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A386" s="2" t="s">
         <v>765</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A387" s="2" t="s">
         <v>767</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A388" s="2" t="s">
         <v>769</v>
       </c>
@@ -14773,7 +14772,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A389" s="2" t="s">
         <v>771</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A390" s="2" t="s">
         <v>773</v>
       </c>
@@ -14825,7 +14824,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A391" s="2" t="s">
         <v>775</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A392" s="2" t="s">
         <v>777</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A393" s="2" t="s">
         <v>779</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A394" s="2" t="s">
         <v>781</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A395" s="2" t="s">
         <v>783</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A396" s="2" t="s">
         <v>785</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A397" s="2" t="s">
         <v>787</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A398" s="2" t="s">
         <v>789</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A399" s="2" t="s">
         <v>791</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A400" s="2" t="s">
         <v>793</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A401" s="2" t="s">
         <v>795</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A402" s="2" t="s">
         <v>797</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A403" s="2" t="s">
         <v>799</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A404" s="2" t="s">
         <v>801</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A405" s="2" t="s">
         <v>803</v>
       </c>
@@ -15215,7 +15214,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A406" s="2" t="s">
         <v>805</v>
       </c>
@@ -15241,7 +15240,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A407" s="2" t="s">
         <v>807</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A408" s="2" t="s">
         <v>809</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A409" s="2" t="s">
         <v>811</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A410" s="2" t="s">
         <v>813</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A411" s="2" t="s">
         <v>815</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A412" s="2" t="s">
         <v>817</v>
       </c>
@@ -15397,7 +15396,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A413" s="2" t="s">
         <v>819</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A414" s="2" t="s">
         <v>821</v>
       </c>
@@ -15449,7 +15448,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A415" s="2" t="s">
         <v>823</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A416" s="2" t="s">
         <v>825</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A417" s="2" t="s">
         <v>827</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A418" s="2" t="s">
         <v>829</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A419" s="2" t="s">
         <v>831</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A420" s="2" t="s">
         <v>833</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A421" s="2" t="s">
         <v>835</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A422" s="2" t="s">
         <v>837</v>
       </c>
@@ -15657,7 +15656,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A423" s="2" t="s">
         <v>839</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A424" s="2" t="s">
         <v>841</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A425" s="2" t="s">
         <v>843</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A426" s="2" t="s">
         <v>845</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A427" s="2" t="s">
         <v>847</v>
       </c>
@@ -15787,7 +15786,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A428" s="2" t="s">
         <v>849</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A429" s="2" t="s">
         <v>851</v>
       </c>
@@ -15839,7 +15838,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A430" s="2" t="s">
         <v>853</v>
       </c>
@@ -15865,7 +15864,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A431" s="2" t="s">
         <v>855</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A432" s="2" t="s">
         <v>857</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A433" s="2" t="s">
         <v>859</v>
       </c>
@@ -15943,7 +15942,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A434" s="2" t="s">
         <v>861</v>
       </c>
@@ -15969,7 +15968,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A435" s="2" t="s">
         <v>863</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="252" x14ac:dyDescent="0.5">
       <c r="A436" s="2" t="s">
         <v>865</v>
       </c>
@@ -16021,7 +16020,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="324" x14ac:dyDescent="0.5">
       <c r="A437" s="2" t="s">
         <v>867</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A438" s="2" t="s">
         <v>869</v>
       </c>
@@ -16073,7 +16072,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A439" s="2" t="s">
         <v>871</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A440" s="2" t="s">
         <v>873</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A441" s="2" t="s">
         <v>875</v>
       </c>
@@ -16151,7 +16150,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A442" s="2" t="s">
         <v>877</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A443" s="2" t="s">
         <v>879</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A444" s="2" t="s">
         <v>881</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A445" s="2" t="s">
         <v>883</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A446" s="2" t="s">
         <v>885</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A447" s="2" t="s">
         <v>887</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A448" s="2" t="s">
         <v>889</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A449" s="2" t="s">
         <v>891</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A450" s="2" t="s">
         <v>893</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A451" s="2" t="s">
         <v>895</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A452" s="2" t="s">
         <v>897</v>
       </c>
@@ -16437,7 +16436,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A453" s="2" t="s">
         <v>899</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A454" s="2" t="s">
         <v>901</v>
       </c>
@@ -16489,7 +16488,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A455" s="2" t="s">
         <v>903</v>
       </c>
@@ -16515,7 +16514,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A456" s="2" t="s">
         <v>905</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A457" s="2" t="s">
         <v>907</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A458" s="2" t="s">
         <v>909</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A459" s="2" t="s">
         <v>911</v>
       </c>
@@ -16619,7 +16618,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A460" s="2" t="s">
         <v>913</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A461" s="2" t="s">
         <v>915</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A462" s="2" t="s">
         <v>917</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A463" s="2" t="s">
         <v>919</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A464" s="2" t="s">
         <v>921</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A465" s="2" t="s">
         <v>923</v>
       </c>
@@ -16775,7 +16774,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A466" s="2" t="s">
         <v>925</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A467" s="2" t="s">
         <v>927</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A468" s="2" t="s">
         <v>929</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A469" s="2" t="s">
         <v>931</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A470" s="2" t="s">
         <v>933</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A471" s="2" t="s">
         <v>935</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A472" s="2" t="s">
         <v>937</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A473" s="2" t="s">
         <v>939</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A474" s="2" t="s">
         <v>941</v>
       </c>
@@ -17009,7 +17008,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A475" s="2" t="s">
         <v>943</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A476" s="2" t="s">
         <v>945</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A477" s="2" t="s">
         <v>947</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A478" s="2" t="s">
         <v>949</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A479" s="2" t="s">
         <v>951</v>
       </c>
@@ -17139,7 +17138,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A480" s="2" t="s">
         <v>953</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A481" s="2" t="s">
         <v>955</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A482" s="2" t="s">
         <v>957</v>
       </c>
@@ -17217,7 +17216,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A483" s="2" t="s">
         <v>959</v>
       </c>
@@ -17243,7 +17242,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A484" s="2" t="s">
         <v>961</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A485" s="2" t="s">
         <v>963</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A486" s="2" t="s">
         <v>965</v>
       </c>
@@ -17321,7 +17320,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A487" s="2" t="s">
         <v>967</v>
       </c>
@@ -17347,7 +17346,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A488" s="2" t="s">
         <v>969</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A489" s="2" t="s">
         <v>971</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A490" s="2" t="s">
         <v>973</v>
       </c>
@@ -17425,7 +17424,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A491" s="2" t="s">
         <v>975</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A492" s="2" t="s">
         <v>977</v>
       </c>
@@ -17477,7 +17476,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A493" s="2" t="s">
         <v>979</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A494" s="2" t="s">
         <v>981</v>
       </c>
@@ -17529,7 +17528,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A495" s="2" t="s">
         <v>983</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A496" s="2" t="s">
         <v>985</v>
       </c>
@@ -17581,7 +17580,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A497" s="2" t="s">
         <v>987</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A498" s="2" t="s">
         <v>989</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="396" x14ac:dyDescent="0.5">
       <c r="A499" s="2" t="s">
         <v>991</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A500" s="2" t="s">
         <v>993</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A501" s="2" t="s">
         <v>995</v>
       </c>
@@ -17708,7 +17707,7 @@
         <v>-6.13060170608414</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A502" s="2" t="s">
         <v>996</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A503" s="2" t="s">
         <v>998</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A504" s="2" t="s">
         <v>1000</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A505" s="2" t="s">
         <v>1002</v>
       </c>
@@ -17812,7 +17811,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A506" s="2" t="s">
         <v>1004</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A507" s="2" t="s">
         <v>1006</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A508" s="2" t="s">
         <v>1008</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A509" s="2" t="s">
         <v>1010</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A510" s="2" t="s">
         <v>1012</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A511" s="2" t="s">
         <v>1014</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A512" s="2" t="s">
         <v>1016</v>
       </c>
@@ -17994,7 +17993,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A513" s="2" t="s">
         <v>1018</v>
       </c>
@@ -18020,7 +18019,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A514" s="2" t="s">
         <v>1020</v>
       </c>
@@ -18043,7 +18042,7 @@
         <v>-6.1585408444730403</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A515" s="2" t="s">
         <v>1021</v>
       </c>
@@ -18069,7 +18068,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A516" s="2" t="s">
         <v>1023</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A517" s="2" t="s">
         <v>1025</v>
       </c>
@@ -18121,7 +18120,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A518" s="2" t="s">
         <v>1027</v>
       </c>
@@ -18147,7 +18146,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A519" s="2" t="s">
         <v>1029</v>
       </c>
@@ -18173,7 +18172,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A520" s="2" t="s">
         <v>1031</v>
       </c>
@@ -18199,7 +18198,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A521" s="2" t="s">
         <v>1033</v>
       </c>
@@ -18225,7 +18224,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A522" s="2" t="s">
         <v>1035</v>
       </c>
@@ -18251,7 +18250,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A523" s="2" t="s">
         <v>1037</v>
       </c>
@@ -18277,7 +18276,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A524" s="2" t="s">
         <v>1039</v>
       </c>
@@ -18303,7 +18302,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A525" s="2" t="s">
         <v>1041</v>
       </c>
@@ -18329,7 +18328,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A526" s="2" t="s">
         <v>1043</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A527" s="2" t="s">
         <v>1045</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A528" s="2" t="s">
         <v>1047</v>
       </c>
@@ -18407,7 +18406,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A529" s="2" t="s">
         <v>1049</v>
       </c>
@@ -18433,7 +18432,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A530" s="2" t="s">
         <v>1051</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A531" s="2" t="s">
         <v>1053</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A532" s="2" t="s">
         <v>1055</v>
       </c>
@@ -18511,7 +18510,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A533" s="2" t="s">
         <v>1057</v>
       </c>
@@ -18537,7 +18536,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A534" s="2" t="s">
         <v>1059</v>
       </c>
@@ -18563,7 +18562,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A535" s="2" t="s">
         <v>1061</v>
       </c>
@@ -18589,7 +18588,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A536" s="2" t="s">
         <v>1063</v>
       </c>
@@ -18615,7 +18614,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A537" s="2" t="s">
         <v>1065</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A538" s="2" t="s">
         <v>1067</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="378" x14ac:dyDescent="0.5">
       <c r="A539" s="2" t="s">
         <v>1069</v>
       </c>
@@ -18693,7 +18692,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A540" s="2" t="s">
         <v>1071</v>
       </c>
@@ -18719,7 +18718,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A541" s="2" t="s">
         <v>1073</v>
       </c>
@@ -18745,7 +18744,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A542" s="2" t="s">
         <v>1075</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A543" s="2" t="s">
         <v>1077</v>
       </c>
@@ -18797,7 +18796,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A544" s="2" t="s">
         <v>1079</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A545" s="2" t="s">
         <v>1081</v>
       </c>
@@ -18849,7 +18848,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A546" s="2" t="s">
         <v>1083</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A547" s="2" t="s">
         <v>1085</v>
       </c>
@@ -18901,7 +18900,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A548" s="2" t="s">
         <v>1087</v>
       </c>
@@ -18927,7 +18926,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="399" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" ht="360" x14ac:dyDescent="0.5">
       <c r="A549" s="2" t="s">
         <v>1089</v>
       </c>
@@ -18953,7 +18952,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A550" s="2" t="s">
         <v>1091</v>
       </c>
@@ -18979,7 +18978,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A551" s="2" t="s">
         <v>1093</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A552" s="2" t="s">
         <v>1095</v>
       </c>
@@ -19031,7 +19030,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A553" s="2" t="s">
         <v>1097</v>
       </c>
@@ -19057,7 +19056,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A554" s="2" t="s">
         <v>1099</v>
       </c>
@@ -19083,7 +19082,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A555" s="2" t="s">
         <v>1101</v>
       </c>
@@ -19109,7 +19108,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A556" s="2" t="s">
         <v>1103</v>
       </c>
@@ -19135,7 +19134,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A557" s="2" t="s">
         <v>1105</v>
       </c>
@@ -19161,7 +19160,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A558" s="2" t="s">
         <v>1107</v>
       </c>
@@ -19187,7 +19186,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A559" s="2" t="s">
         <v>1109</v>
       </c>
@@ -19213,7 +19212,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A560" s="2" t="s">
         <v>1111</v>
       </c>
@@ -19239,7 +19238,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A561" s="2" t="s">
         <v>1113</v>
       </c>
@@ -19265,7 +19264,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A562" s="2" t="s">
         <v>1115</v>
       </c>
@@ -19291,7 +19290,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A563" s="2" t="s">
         <v>1117</v>
       </c>
@@ -19317,7 +19316,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A564" s="2" t="s">
         <v>1119</v>
       </c>
@@ -19343,7 +19342,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A565" s="2" t="s">
         <v>1121</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A566" s="2" t="s">
         <v>1123</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A567" s="2" t="s">
         <v>1125</v>
       </c>
@@ -19421,7 +19420,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A568" s="2" t="s">
         <v>1127</v>
       </c>
@@ -19447,7 +19446,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" ht="396" x14ac:dyDescent="0.5">
       <c r="A569" s="2" t="s">
         <v>1129</v>
       </c>
@@ -19473,7 +19472,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A570" s="2" t="s">
         <v>1131</v>
       </c>
@@ -19499,7 +19498,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A571" s="2" t="s">
         <v>1133</v>
       </c>
@@ -19525,7 +19524,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A572" s="2" t="s">
         <v>1135</v>
       </c>
@@ -19551,7 +19550,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A573" s="2" t="s">
         <v>1137</v>
       </c>
@@ -19577,7 +19576,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A574" s="2" t="s">
         <v>1139</v>
       </c>
@@ -19603,7 +19602,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A575" s="2" t="s">
         <v>1141</v>
       </c>
@@ -19629,7 +19628,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A576" s="2" t="s">
         <v>1143</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A577" s="2" t="s">
         <v>1145</v>
       </c>
@@ -19681,7 +19680,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A578" s="2" t="s">
         <v>1147</v>
       </c>
@@ -19707,7 +19706,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A579" s="2" t="s">
         <v>1149</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A580" s="2" t="s">
         <v>1151</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A581" s="2" t="s">
         <v>1153</v>
       </c>
@@ -19785,7 +19784,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="152" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="144" x14ac:dyDescent="0.5">
       <c r="A582" s="2" t="s">
         <v>1155</v>
       </c>
@@ -19811,7 +19810,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A583" s="2" t="s">
         <v>1157</v>
       </c>
@@ -19837,7 +19836,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A584" s="2" t="s">
         <v>1159</v>
       </c>
@@ -19863,7 +19862,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A585" s="2" t="s">
         <v>1161</v>
       </c>
@@ -19889,7 +19888,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A586" s="2" t="s">
         <v>1163</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>-6.2255725529860504</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A587" s="2" t="s">
         <v>1164</v>
       </c>
@@ -19938,7 +19937,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A588" s="2" t="s">
         <v>1166</v>
       </c>
@@ -19964,7 +19963,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A589" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19990,7 +19989,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A590" s="2" t="s">
         <v>1170</v>
       </c>
@@ -20016,7 +20015,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A591" s="2" t="s">
         <v>1172</v>
       </c>
@@ -20042,7 +20041,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A592" s="2" t="s">
         <v>1174</v>
       </c>
@@ -20068,7 +20067,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A593" s="2" t="s">
         <v>1176</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A594" s="2" t="s">
         <v>1178</v>
       </c>
@@ -20120,7 +20119,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A595" s="2" t="s">
         <v>1180</v>
       </c>
@@ -20146,7 +20145,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A596" s="2" t="s">
         <v>1182</v>
       </c>
@@ -20172,7 +20171,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A597" s="2" t="s">
         <v>1184</v>
       </c>
@@ -20198,7 +20197,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A598" s="2" t="s">
         <v>1186</v>
       </c>
@@ -20224,7 +20223,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A599" s="2" t="s">
         <v>1188</v>
       </c>
@@ -20250,7 +20249,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A600" s="2" t="s">
         <v>1190</v>
       </c>
@@ -20276,7 +20275,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A601" s="2" t="s">
         <v>1192</v>
       </c>
@@ -20302,7 +20301,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A602" s="2" t="s">
         <v>1194</v>
       </c>
@@ -20328,7 +20327,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A603" s="2" t="s">
         <v>1196</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="247" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" ht="234" x14ac:dyDescent="0.5">
       <c r="A604" s="2" t="s">
         <v>1198</v>
       </c>
@@ -20380,7 +20379,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A605" s="2" t="s">
         <v>1200</v>
       </c>
@@ -20406,7 +20405,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" ht="198" x14ac:dyDescent="0.5">
       <c r="A606" s="2" t="s">
         <v>1202</v>
       </c>
@@ -20432,7 +20431,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A607" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20458,7 +20457,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A608" s="2" t="s">
         <v>1206</v>
       </c>
@@ -20484,7 +20483,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="72" x14ac:dyDescent="0.5">
       <c r="A609" s="2" t="s">
         <v>1208</v>
       </c>
@@ -20510,7 +20509,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A610" s="2" t="s">
         <v>1210</v>
       </c>
@@ -20536,7 +20535,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" ht="288" x14ac:dyDescent="0.5">
       <c r="A611" s="2" t="s">
         <v>1212</v>
       </c>
@@ -20562,7 +20561,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" ht="306" x14ac:dyDescent="0.5">
       <c r="A612" s="2" t="s">
         <v>1214</v>
       </c>
@@ -20588,7 +20587,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="361" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" ht="342" x14ac:dyDescent="0.5">
       <c r="A613" s="2" t="s">
         <v>1216</v>
       </c>
@@ -20614,7 +20613,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" ht="90" x14ac:dyDescent="0.5">
       <c r="A614" s="2" t="s">
         <v>1218</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="209" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A615" s="2" t="s">
         <v>1220</v>
       </c>
@@ -20666,7 +20665,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A616" s="2" t="s">
         <v>1222</v>
       </c>
@@ -20692,7 +20691,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A617" s="2" t="s">
         <v>1224</v>
       </c>
@@ -20718,7 +20717,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A618" s="2" t="s">
         <v>1226</v>
       </c>
@@ -20744,7 +20743,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" ht="162" x14ac:dyDescent="0.5">
       <c r="A619" s="2" t="s">
         <v>1228</v>
       </c>
@@ -20770,7 +20769,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" ht="216" x14ac:dyDescent="0.5">
       <c r="A620" s="2" t="s">
         <v>1230</v>
       </c>
@@ -20796,7 +20795,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A621" s="2" t="s">
         <v>1232</v>
       </c>
@@ -20822,7 +20821,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" ht="360" x14ac:dyDescent="0.5">
       <c r="A622" s="2" t="s">
         <v>1234</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A623" s="2" t="s">
         <v>1236</v>
       </c>
@@ -20874,7 +20873,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A624" s="2" t="s">
         <v>1238</v>
       </c>
@@ -20900,7 +20899,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
       <c r="A625" s="2" t="s">
         <v>1240</v>
       </c>
@@ -20926,7 +20925,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" ht="270" x14ac:dyDescent="0.5">
       <c r="A626" s="2" t="s">
         <v>1242</v>
       </c>
@@ -20952,7 +20951,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="54" x14ac:dyDescent="0.5">
       <c r="A627" s="2" t="s">
         <v>1244</v>
       </c>
@@ -20978,7 +20977,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A628" s="2" t="s">
         <v>1246</v>
       </c>
@@ -21004,7 +21003,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" ht="108" x14ac:dyDescent="0.5">
       <c r="A629" s="2" t="s">
         <v>1248</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A630" s="2" t="s">
         <v>1250</v>
       </c>
@@ -21056,7 +21055,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A631" s="2" t="s">
         <v>1252</v>
       </c>
@@ -21082,7 +21081,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" ht="180" x14ac:dyDescent="0.5">
       <c r="A632" s="2" t="s">
         <v>1254</v>
       </c>
@@ -21108,7 +21107,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="A633" s="2" t="s">
         <v>1256</v>
       </c>
@@ -21134,7 +21133,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A634" s="2" t="s">
         <v>1258</v>
       </c>
